--- a/backend/go-space/storage/income_statement_temp.xlsx
+++ b/backend/go-space/storage/income_statement_temp.xlsx
@@ -181,7 +181,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>

--- a/backend/go-space/storage/income_statement_temp.xlsx
+++ b/backend/go-space/storage/income_statement_temp.xlsx
@@ -475,7 +475,7 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -483,7 +483,7 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/backend/go-space/storage/income_statement_temp.xlsx
+++ b/backend/go-space/storage/income_statement_temp.xlsx
@@ -124,32 +124,32 @@
   <borders count="4">
     <border/>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>

--- a/backend/go-space/storage/income_statement_temp.xlsx
+++ b/backend/go-space/storage/income_statement_temp.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -93,11 +93,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <strike/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -157,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -170,16 +165,15 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -192,8 +186,8 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -439,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="4.29"/>
+    <col customWidth="1" min="1" max="21" width="4.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,15 +445,11 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="4"/>
     </row>
     <row r="4">
       <c r="E4" s="3" t="s">
@@ -467,28 +457,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -498,90 +488,90 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
     </row>
     <row r="21">
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="11" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
